--- a/RUDN/Importance/Varible_muatal_reg_in_Western Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Western Africa.xlsx
@@ -52,15 +52,15 @@
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
@@ -103,12 +103,12 @@
     <t>Population, female (% of total)</t>
   </si>
   <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
@@ -124,6 +124,9 @@
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
@@ -133,72 +136,69 @@
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Forest area (sq. km)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
@@ -241,18 +241,18 @@
     <t>Prevalence of undernourishment (% of population)</t>
   </si>
   <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -271,12 +271,12 @@
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
@@ -295,15 +295,15 @@
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
     <t>Female population 50-54</t>
   </si>
   <si>
@@ -322,21 +322,21 @@
     <t>Country_code</t>
   </si>
   <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -385,18 +385,21 @@
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
     <t>Female population 40-44</t>
   </si>
   <si>
@@ -412,42 +415,39 @@
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
   </si>
   <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
     <t>Population, male</t>
   </si>
   <si>
@@ -514,12 +514,12 @@
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
@@ -529,39 +529,42 @@
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
     <t>Male population 55-59</t>
   </si>
   <si>
@@ -598,18 +601,15 @@
     <t>Female population 80+</t>
   </si>
   <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
     <t>Male population 40-44</t>
   </si>
   <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
@@ -637,12 +637,12 @@
     <t>Female population 00-04</t>
   </si>
   <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
@@ -736,18 +736,18 @@
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Age population, age 22, male, interpolated</t>
+    <t>Reported cases of malaria</t>
   </si>
   <si>
     <t>Malaria cases reported</t>
   </si>
   <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
@@ -763,42 +763,42 @@
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
@@ -850,51 +850,54 @@
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
@@ -904,9 +907,6 @@
     <t>Persistence to grade 5, female (% of cohort)</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
@@ -919,30 +919,30 @@
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>Status under enhanced HIPC initiative</t>
+    <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
@@ -955,12 +955,12 @@
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
     <t>Gross graduation ratio, primary, female (%)</t>
   </si>
   <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
@@ -1021,21 +1021,21 @@
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
+    <t>Children with fever receiving antimalarial drugs (% of children under age 5 with fever)</t>
+  </si>
+  <si>
     <t>Use of insecticide-treated bed nets (% of under-5 population)</t>
   </si>
   <si>
     <t>Use of Intermittent Preventive Treatment of malaria, 2+ doses of SP/Fansidar (% of pregnant women)</t>
   </si>
   <si>
-    <t>Children with fever receiving antimalarial drugs (% of children under age 5 with fever)</t>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
@@ -1045,24 +1045,24 @@
     <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
+    <t>Main cooking fuel: LPG/natural gas/biogas (% of households)</t>
+  </si>
+  <si>
+    <t>Female headed households (% of households with a female head)</t>
+  </si>
+  <si>
     <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
   </si>
   <si>
-    <t>Main cooking fuel: LPG/natural gas/biogas (% of households)</t>
+    <t>Main cooking fuel: electricity  (% of households)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: dung (% of households)</t>
   </si>
   <si>
     <t>Main cooking fuel: charcoal (% of households)</t>
   </si>
   <si>
-    <t>Main cooking fuel: electricity  (% of households)</t>
-  </si>
-  <si>
-    <t>Female headed households (% of households with a female head)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: dung (% of households)</t>
-  </si>
-  <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
@@ -1075,87 +1075,87 @@
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
+    <t>Years</t>
+  </si>
+  <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
     <t>Malnutrition prevalence, height for age (% of children under 5)</t>
   </si>
   <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
     <t>Expected years of schooling, female</t>
   </si>
   <si>
@@ -1183,37 +1183,37 @@
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
     <t>Demand for family planning satisfied by modern methods (% of married women with demand for family planning)</t>
   </si>
   <si>
     <t>Pregnant women receiving prenatal care (%)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Unmet need for contraception (% of married women ages 15-49)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+    <t>People using safely managed drinking water services (% of population)</t>
   </si>
   <si>
     <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
   </si>
   <si>
     <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.179413834986077</v>
+        <v>2.181245336817579</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.127329345881507</v>
+        <v>2.128428246980408</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1645,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.296045196884693</v>
+        <v>1.296430672814729</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1653,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.294838467106535</v>
+        <v>1.295016659236893</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1661,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.254471569742575</v>
+        <v>1.254839850110855</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1669,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.207280767352463</v>
+        <v>1.21030235365689</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1685,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.003841418620253</v>
+        <v>1.00309429071042</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1693,7 +1693,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.001938561008567</v>
+        <v>0.9997797596119304</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1701,7 +1701,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9583310830420837</v>
+        <v>0.9599657336493927</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1717,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.955203828887488</v>
+        <v>0.9583310830420837</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1757,7 +1757,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8750481575588478</v>
+        <v>0.8753373420585588</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1765,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8719273636284037</v>
+        <v>0.8712538655550142</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1837,7 +1837,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8313954564714816</v>
+        <v>0.8311145382992819</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1845,7 +1845,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8311145382992819</v>
+        <v>0.8239250488913572</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7758239516334275</v>
+        <v>0.777620920896839</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1901,7 +1901,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7751449179313012</v>
+        <v>0.7758239516334275</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1909,7 +1909,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7696671309815852</v>
+        <v>0.7737024604818701</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7667137846088403</v>
+        <v>0.7714986328130871</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1925,7 +1925,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7651498332272455</v>
+        <v>0.7613384414929141</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7613384414929141</v>
+        <v>0.7558827588584318</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7598541385199837</v>
+        <v>0.7549458919725449</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1957,7 +1957,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7558827588584318</v>
+        <v>0.7536475066767432</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7547459132729819</v>
+        <v>0.7497580311887622</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1973,7 +1973,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7497580311887622</v>
+        <v>0.7473708403641828</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1981,7 +1981,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7473708403641828</v>
+        <v>0.747279725416389</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1989,7 +1989,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7469256486440696</v>
+        <v>0.7439103578229287</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1997,7 +1997,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.7439103578229287</v>
+        <v>0.7418588324468551</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2005,7 +2005,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.7418588324468551</v>
+        <v>0.7387068798475518</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7387068798475518</v>
+        <v>0.7367974347950583</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.7367974347950583</v>
+        <v>0.7254513780434468</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2029,7 +2029,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7320282434869982</v>
+        <v>0.7200151612391927</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7236870899155776</v>
+        <v>0.7193650190811738</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7200151612391927</v>
+        <v>0.719161684060194</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7193650190811738</v>
+        <v>0.7183104895967389</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7183104895967389</v>
+        <v>0.7179324624749799</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7144181760834241</v>
+        <v>0.7151730600726678</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2085,7 +2085,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7125382879316038</v>
+        <v>0.7144181760834241</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7080251414291703</v>
+        <v>0.7077019352236111</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7068052912554879</v>
+        <v>0.7065555410057378</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2141,7 +2141,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6999980810554487</v>
+        <v>0.7008002057334024</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2149,7 +2149,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6948837322107582</v>
+        <v>0.6999980810554487</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6850183658016236</v>
+        <v>0.6854369947916807</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2181,7 +2181,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6848875442422302</v>
+        <v>0.6850183658016236</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6841211046154023</v>
+        <v>0.684186004511679</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6819652471649178</v>
+        <v>0.6815031801407989</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6810177141380915</v>
+        <v>0.678398989344267</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.678398989344267</v>
+        <v>0.6727734147844182</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6746049166159205</v>
+        <v>0.6704741492715973</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.6640589043238485</v>
+        <v>0.6637972612050627</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.6571463648007336</v>
+        <v>0.6564507091828173</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6564507091828173</v>
+        <v>0.6528394212013757</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.648828604135292</v>
+        <v>0.6500385888277633</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6364403613316405</v>
+        <v>0.6362014697884009</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6277419421216055</v>
+        <v>0.6272209726447406</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6272209726447406</v>
+        <v>0.6249585693377702</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.6230269797239276</v>
+        <v>0.6227969515541387</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2389,7 +2389,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6145668564225191</v>
+        <v>0.6149920264905462</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6112448841114873</v>
+        <v>0.6103529189338079</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.6092396293129005</v>
+        <v>0.6085509861907075</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6085107654643398</v>
+        <v>0.6070056550485559</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.6070056550485559</v>
+        <v>0.6056807489051255</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.6056807489051255</v>
+        <v>0.6027478669000979</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2445,7 +2445,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.6027478669000979</v>
+        <v>0.5981884329169822</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.5981884329169822</v>
+        <v>0.5980552598704656</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.5820581538081235</v>
+        <v>0.582735241295488</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5796742956921008</v>
+        <v>0.5801875524990174</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.5793985643497013</v>
+        <v>0.5796742956921008</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.5755949117493562</v>
+        <v>0.5769188326974817</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.5754349635520426</v>
+        <v>0.5755949117493562</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.5752609028255931</v>
+        <v>0.5754349635520426</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.5749789647274675</v>
+        <v>0.5752609028255931</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.5747437142280907</v>
+        <v>0.5749789647274675</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.5743601170992725</v>
+        <v>0.5747437142280907</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.5725949894075275</v>
+        <v>0.5718336686896213</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.5718336686896213</v>
+        <v>0.571757273938744</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.571757273938744</v>
+        <v>0.5714607385863797</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.5714607385863797</v>
+        <v>0.5712262427057557</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.5712262427057557</v>
+        <v>0.5710848679260772</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.5710848679260772</v>
+        <v>0.5706394601605931</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.5706394601605931</v>
+        <v>0.5687740951765901</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.5687740951765901</v>
+        <v>0.5687169814195663</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.5687169814195663</v>
+        <v>0.568452703846698</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.568452703846698</v>
+        <v>0.5683400099539551</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.5683400099539551</v>
+        <v>0.5668799363200909</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5638118883613084</v>
+        <v>0.5647189004821342</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.5478592925469772</v>
+        <v>0.5484087430964282</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.546438231218517</v>
+        <v>0.5478118575921433</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.5453604366417699</v>
+        <v>0.5460342379764866</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.5450598067214019</v>
+        <v>0.5444546148118623</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.5390818539043258</v>
+        <v>0.5390208038432758</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2933,7 +2933,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.5382668026851745</v>
+        <v>0.5382458604808584</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.5382458604808584</v>
+        <v>0.538002323574541</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2973,7 +2973,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5333999126430142</v>
+        <v>0.5332793134022631</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.5332793134022631</v>
+        <v>0.5327976398392114</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2989,7 +2989,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5327976398392114</v>
+        <v>0.5311195839026892</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.5311195839026892</v>
+        <v>0.528897791003486</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.528897791003486</v>
+        <v>0.5279639984435165</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.5279639984435165</v>
+        <v>0.5274396534415962</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.5274396534415962</v>
+        <v>0.5272803282999448</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3029,7 +3029,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.5272803282999448</v>
+        <v>0.5268919000631795</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.5268919000631795</v>
+        <v>0.5249059988812821</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.5249059988812821</v>
+        <v>0.5246801853354914</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.5223091641679667</v>
+        <v>0.5224457700677561</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.5222937228257205</v>
+        <v>0.5223091641679667</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.5220221176217414</v>
+        <v>0.5222937228257205</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.5214581500260906</v>
+        <v>0.5220221176217414</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.5207388434748323</v>
+        <v>0.5214581500260906</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.5203016715936366</v>
+        <v>0.5207388434748323</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.5200236474950546</v>
+        <v>0.5203016715936366</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.5195977754241494</v>
+        <v>0.5200236474950546</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.5190697243438156</v>
+        <v>0.5195977754241494</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.5187056042481131</v>
+        <v>0.5190697243438156</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.5181232371202089</v>
+        <v>0.5187056042481131</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.5169018306804314</v>
+        <v>0.5181232371202089</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.516327078006757</v>
+        <v>0.5169018306804314</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3173,7 +3173,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.5118808801661121</v>
+        <v>0.5110356583918749</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3181,7 +3181,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.5110356583918749</v>
+        <v>0.5107588958245897</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3229,7 +3229,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.5070267588162198</v>
+        <v>0.5069395444432909</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.5053846078075299</v>
+        <v>0.5054691386612915</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.5052416565523532</v>
+        <v>0.5050303294179499</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.5041341461353164</v>
+        <v>0.5042460477054773</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3269,7 +3269,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.503071474405554</v>
+        <v>0.5041341461353164</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.5001830906220395</v>
+        <v>0.5004511152803088</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.4867311481793064</v>
+        <v>0.4869346483828068</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.4865431603532548</v>
+        <v>0.4855712063445679</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.4310088530873268</v>
+        <v>0.4305629025297817</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.4305629025297817</v>
+        <v>0.429437944493277</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.4263350022614181</v>
+        <v>0.4288700513231287</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.4263318027706489</v>
+        <v>0.426605843277609</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.4102275865971476</v>
+        <v>0.4100503444844219</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.4048593908554654</v>
+        <v>0.4036981571379243</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.4036981571379243</v>
+        <v>0.4015233536918794</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.3902398155225653</v>
+        <v>0.3944666020186929</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3637,7 +3637,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.3850102079595608</v>
+        <v>0.3865806662536202</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3645,7 +3645,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.3809469329051076</v>
+        <v>0.3791342983728314</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3653,7 +3653,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.3792035227051911</v>
+        <v>0.3786221051237373</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3661,7 +3661,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.3790613543384911</v>
+        <v>0.3784183253869906</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3669,7 +3669,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.3787275978702862</v>
+        <v>0.3726795708395039</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3677,7 +3677,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.3785164415565356</v>
+        <v>0.3722117822969646</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3685,7 +3685,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.3723014236933699</v>
+        <v>0.3712173613705945</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3701,7 +3701,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.3630190814989243</v>
+        <v>0.3627588961742425</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.3424947987522011</v>
+        <v>0.3421482099488107</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.3388058762075383</v>
+        <v>0.3390343516849033</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.3365423811319168</v>
+        <v>0.3366199525934759</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.3302464693338343</v>
+        <v>0.3299843973697931</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.3167046239113689</v>
+        <v>0.3165344349552153</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.3157976820234429</v>
+        <v>0.3160111041529055</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.309560994182591</v>
+        <v>0.3095977255215561</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.307735471997401</v>
+        <v>0.3073265717940836</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.3062845900998998</v>
+        <v>0.3069129997747724</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.3055394241783067</v>
+        <v>0.3050171835484692</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.3052573506740117</v>
+        <v>0.3048945933717586</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3853,7 +3853,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.3047523488513826</v>
+        <v>0.3020010391870929</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3861,7 +3861,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.3041629045552023</v>
+        <v>0.3001183660379989</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3869,7 +3869,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.300309942342079</v>
+        <v>0.3000710507988398</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3877,7 +3877,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.3000506198594319</v>
+        <v>0.2996342864421013</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3885,7 +3885,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2953862467674475</v>
+        <v>0.2899397612906602</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3893,7 +3893,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2899397612906602</v>
+        <v>0.2882765149932172</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3909,7 +3909,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2827605704345693</v>
+        <v>0.2856903111026088</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3917,7 +3917,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.2805057379551616</v>
+        <v>0.2820625804914509</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3925,7 +3925,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.2804174755526279</v>
+        <v>0.2802922839260495</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3933,7 +3933,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.2787036423521001</v>
+        <v>0.2796015127590605</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3941,7 +3941,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.2771584944661007</v>
+        <v>0.276905797930407</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3949,7 +3949,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.2684792504142179</v>
+        <v>0.2695728764820471</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3957,7 +3957,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2676702119566057</v>
+        <v>0.2686070397899685</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3965,7 +3965,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2659504641194836</v>
+        <v>0.2684910780598633</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3973,7 +3973,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.2655110889262255</v>
+        <v>0.2661215649484785</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3981,7 +3981,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2614660433054934</v>
+        <v>0.2629553736844081</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3989,7 +3989,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.2613644402229416</v>
+        <v>0.2604454187682061</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.2590658166045785</v>
+        <v>0.2588899520749746</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2566857029500591</v>
+        <v>0.2559424651263065</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4013,7 +4013,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.2558545432025094</v>
+        <v>0.2546633763050581</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4021,7 +4021,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.2543018643842094</v>
+        <v>0.2530247842070075</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4029,7 +4029,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.2539671945109183</v>
+        <v>0.2517895341929426</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4037,7 +4037,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.2530247842070075</v>
+        <v>0.2502768981337693</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4045,7 +4045,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.2517241234132463</v>
+        <v>0.2502723115778605</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4053,7 +4053,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.2509254106254166</v>
+        <v>0.249529787505689</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4061,7 +4061,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.2502768981337693</v>
+        <v>0.2490244285574716</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4069,7 +4069,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.2488367478495608</v>
+        <v>0.248791948620358</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4077,7 +4077,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.2438649899267726</v>
+        <v>0.2440193035765794</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4085,7 +4085,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.2417326966637985</v>
+        <v>0.2417600670635798</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4093,7 +4093,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.241501801789108</v>
+        <v>0.2410127870968766</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4101,7 +4101,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.2330287397443014</v>
+        <v>0.233374362289255</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4109,7 +4109,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.2323078558192591</v>
+        <v>0.232295165784238</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4117,7 +4117,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.232295165784238</v>
+        <v>0.2310997820022007</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4125,7 +4125,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.2299767549054645</v>
+        <v>0.2294778792544467</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4133,7 +4133,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.2283775865051945</v>
+        <v>0.2283604998021802</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4149,7 +4149,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.2246825973058875</v>
+        <v>0.2238065997523848</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4157,7 +4157,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.2178626394367904</v>
+        <v>0.2182215150759661</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4173,7 +4173,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.1981225567974105</v>
+        <v>0.1984298649698877</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4189,7 +4189,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.194901229433972</v>
+        <v>0.1942641846658599</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4197,7 +4197,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.1945341027870948</v>
+        <v>0.1924862598579522</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4205,7 +4205,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1916045513426463</v>
+        <v>0.1911796254243294</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4213,7 +4213,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.1905799133232948</v>
+        <v>0.1904572280270989</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4221,7 +4221,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1890023607832079</v>
+        <v>0.1888477671269102</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4229,7 +4229,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1852685210431622</v>
+        <v>0.1853167184597799</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4237,7 +4237,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1825379302700894</v>
+        <v>0.1822919925926207</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4245,7 +4245,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.1746548187949803</v>
+        <v>0.1748994016787015</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4253,7 +4253,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.1655585478820931</v>
+        <v>0.1656750560542661</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4261,7 +4261,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.1648422439564856</v>
+        <v>0.1653874167957403</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4269,7 +4269,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.1551451713876533</v>
+        <v>0.1549700165954853</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4309,7 +4309,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.1473316166311938</v>
+        <v>0.1475866153420626</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4317,7 +4317,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.1470563826097346</v>
+        <v>0.147058342475366</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4325,7 +4325,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.1435850828520651</v>
+        <v>0.1441176285988672</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4397,7 +4397,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.1384862754494176</v>
+        <v>0.1386639019250391</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4429,7 +4429,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.1161784984177701</v>
+        <v>0.1173767976593325</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4437,7 +4437,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1051348951741846</v>
+        <v>0.1167785156730228</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4445,7 +4445,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1040326381836572</v>
+        <v>0.1045565261747634</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4637,7 +4637,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.103853508385817</v>
+        <v>0.1040326381836572</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.05054806146860003</v>
+        <v>0.04659732282740947</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.0338213644201788</v>
+        <v>0.03369640919240235</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.02081344732676316</v>
+        <v>0.02211076112407673</v>
       </c>
     </row>
     <row r="405" spans="1:2">
